--- a/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9DAE76-7E92-4901-A44C-B8E86E72673C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F0F3B-226B-4B2C-A308-B4C7D82ADE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D2CE29-E7D4-4C8B-8FC2-812C9B37A0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40AD3-8BF6-4D9F-8F86-25F82BDA1AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40AD3-8BF6-4D9F-8F86-25F82BDA1AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F2A229-A958-4D35-A612-E5F33F85EDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F2A229-A958-4D35-A612-E5F33F85EDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D0274-DF2B-481F-9A1B-9E93C45A9EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D0274-DF2B-481F-9A1B-9E93C45A9EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C53D91-C94D-48AC-AD5F-AE6139255C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C53D91-C94D-48AC-AD5F-AE6139255C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D69AC3-EEA3-477C-99D7-71DC5E5C7608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
